--- a/biology/Médecine/Ximélagatran/Ximélagatran.xlsx
+++ b/biology/Médecine/Ximélagatran/Ximélagatran.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Xim%C3%A9lagatran</t>
+          <t>Ximélagatran</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le ximélagatran (en France et en Suisse : Exanta)(usage oral) était un médicament anticoagulant oral direct, prodrogue du mélagatran (usage sous-cutané). Le 14 février 2006, ce médicament a été retiré du marché au niveau mondial.. Son producteur voit en lui un remplaçant des anti-vitamines K, soumis aux aléas de la nutrition, de l'interaction médicamenteuse, et du monitoring (suivi sanguin).
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Xim%C3%A9lagatran</t>
+          <t>Ximélagatran</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -520,7 +534,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Xim%C3%A9lagatran</t>
+          <t>Ximélagatran</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -538,7 +552,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 </t>
@@ -551,7 +567,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Xim%C3%A9lagatran</t>
+          <t>Ximélagatran</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -569,7 +585,9 @@
           <t>Effets secondaires indésirables</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En utilisation prolongée, le produit a provoqué une hépatite médicamenteuse qui a conduit à suspendre les études et la commercialisation.
 </t>
@@ -582,7 +600,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Xim%C3%A9lagatran</t>
+          <t>Ximélagatran</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -600,7 +618,9 @@
           <t>Retiré du marché</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Le 14 février 2006, la firme pharmaceutique qui produit le mélagatran (usage sous-cutané) et le ximélagatran (usage oral, prodrogue du précédent) a annoncé qu'elle retirait ces deux molécules au niveau mondial car provoquait une hépatite médicamenteuse en utilisation prolongée.
 </t>
